--- a/SampleData/sampleGateTelemetry.xlsx
+++ b/SampleData/sampleGateTelemetry.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grhoelze\Projects\ignite-gate-visualization\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3587D4F8-5C2F-4848-BEC3-06FFF899AD28}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0D044E-9F07-4C46-A031-2FDE9F7989DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6855" xr2:uid="{EB311EE7-EB19-488C-BC75-829E3592D28F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="gatePerformance" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -464,7 +464,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
